--- a/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
+++ b/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01816052-8AA9-4CA8-B806-DDA7FB666486}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABB012F-A9FE-4ACC-958C-89932A1BFCB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="246">
   <si>
     <t>setting_name</t>
   </si>
@@ -225,15 +225,6 @@
     <t>fieldName</t>
   </si>
   <si>
-    <t>ID = ?</t>
-  </si>
-  <si>
-    <t>[data('ID')]</t>
-  </si>
-  <si>
-    <t>{ID: data('ID')}</t>
-  </si>
-  <si>
     <t>{}</t>
   </si>
   <si>
@@ -696,9 +687,6 @@
     <t>english</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>linked_ses</t>
   </si>
   <si>
@@ -729,9 +717,6 @@
     <t>If hvis pregdia != today</t>
   </si>
   <si>
-    <t>{ID: data('ID'), SESDATA: data('PREGDIA')}</t>
-  </si>
-  <si>
     <t>data('GRAVIDA_ESTADO') != '2'</t>
   </si>
   <si>
@@ -759,9 +744,6 @@
     <t>VISITID</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>GRAVIDA</t>
   </si>
   <si>
@@ -772,6 +754,21 @@
   </si>
   <si>
     <t>GRAVIDA_VISIT</t>
+  </si>
+  <si>
+    <t>PREGID = ?</t>
+  </si>
+  <si>
+    <t>[data('PREGID')]</t>
+  </si>
+  <si>
+    <t>{REGID: data('REGID')}</t>
+  </si>
+  <si>
+    <t>REGID</t>
+  </si>
+  <si>
+    <t>{PREGID: data('PREGID'), REGID: data('REGID'), VISITID: data('VISITID'), SESDATA: data('PREGDIA')}</t>
   </si>
 </sst>
 </file>
@@ -1232,13 +1229,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -1249,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1265,7 +1262,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1273,10 +1270,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1292,7 +1289,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1314,7 +1311,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -1366,7 +1363,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -1384,11 +1381,11 @@
         <v>33</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1401,16 +1398,16 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1430,7 +1427,7 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1443,10 +1440,10 @@
         <v>37</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1474,7 +1471,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1487,10 +1484,10 @@
         <v>37</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1498,7 +1495,7 @@
         <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1513,13 +1510,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19" s="17" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1539,7 +1536,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1552,16 +1549,16 @@
         <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1579,13 +1576,13 @@
         <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1593,16 +1590,16 @@
         <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1615,7 +1612,7 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1628,13 +1625,13 @@
         <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -1652,7 +1649,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -1665,13 +1662,13 @@
         <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -1694,16 +1691,16 @@
         <v>32</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1711,7 +1708,7 @@
         <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -1719,21 +1716,21 @@
         <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -1741,34 +1738,34 @@
         <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I46" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -1794,13 +1791,13 @@
         <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -1818,16 +1815,16 @@
         <v>32</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F55" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -1838,11 +1835,11 @@
         <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -1850,7 +1847,7 @@
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -1858,13 +1855,13 @@
         <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -1889,7 +1886,7 @@
         <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H62" t="s">
         <v>52</v>
@@ -1900,10 +1897,10 @@
         <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H63" t="s">
         <v>49</v>
@@ -1914,7 +1911,7 @@
         <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
@@ -1922,10 +1919,10 @@
         <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G65" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H65" t="s">
         <v>48</v>
@@ -1951,7 +1948,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H69" t="s">
         <v>50</v>
@@ -1962,10 +1959,10 @@
         <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G70" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H70" t="s">
         <v>49</v>
@@ -1976,7 +1973,7 @@
         <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
@@ -1984,10 +1981,10 @@
         <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G72" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H72" t="s">
         <v>48</v>
@@ -2022,10 +2019,10 @@
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G77" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H77" t="s">
         <v>49</v>
@@ -2036,7 +2033,7 @@
         <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
@@ -2044,10 +2041,10 @@
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H79" t="s">
         <v>48</v>
@@ -2076,13 +2073,13 @@
         <v>27</v>
       </c>
       <c r="F83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2100,16 +2097,16 @@
         <v>32</v>
       </c>
       <c r="E86" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2127,16 +2124,16 @@
         <v>32</v>
       </c>
       <c r="E89" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F89" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -2163,14 +2160,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -2213,77 +2211,77 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="H5" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +2336,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>38</v>
@@ -2374,7 +2372,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
@@ -2427,394 +2425,394 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
         <v>78</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B11" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B12" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B14" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B15" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B17" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B18" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B19" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B20" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B21" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B23" t="str">
         <f>"88"</f>
         <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B24" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" t="s">
         <v>134</v>
-      </c>
-      <c r="B25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -2825,184 +2823,184 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="s">
         <v>164</v>
       </c>
-      <c r="B33" t="s">
-        <v>167</v>
-      </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" t="s">
         <v>184</v>
-      </c>
-      <c r="B37" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B42" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B43" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D43" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B44" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D44" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3017,7 +3015,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3040,7 +3038,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -3051,7 +3049,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -3062,7 +3060,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -3073,7 +3071,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
@@ -3084,7 +3082,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -3095,7 +3093,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -3106,7 +3104,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
@@ -3117,7 +3115,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -3128,7 +3126,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -3139,10 +3137,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -3150,7 +3148,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -3161,7 +3159,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -3172,7 +3170,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -3183,7 +3181,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -3194,7 +3192,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -3205,7 +3203,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
@@ -3216,7 +3214,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -3227,7 +3225,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -3238,7 +3236,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
@@ -3249,7 +3247,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
@@ -3260,7 +3258,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -3271,7 +3269,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
@@ -3282,7 +3280,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
@@ -3293,7 +3291,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
@@ -3304,7 +3302,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
@@ -3315,10 +3313,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -3326,10 +3324,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>

--- a/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
+++ b/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABB012F-A9FE-4ACC-958C-89932A1BFCB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD59F27B-49EB-478B-9E4E-678230AF8820}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="249">
   <si>
     <t>setting_name</t>
   </si>
@@ -744,6 +744,9 @@
     <t>VISITID</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>GRAVIDA</t>
   </si>
   <si>
@@ -762,13 +765,19 @@
     <t>[data('PREGID')]</t>
   </si>
   <si>
-    <t>{REGID: data('REGID')}</t>
-  </si>
-  <si>
     <t>REGID</t>
   </si>
   <si>
-    <t>{PREGID: data('PREGID'), REGID: data('REGID'), VISITID: data('VISITID'), SESDATA: data('PREGDIA')}</t>
+    <t>PREGID</t>
+  </si>
+  <si>
+    <t>opendatakit.getCurrentInstanceId()</t>
+  </si>
+  <si>
+    <t>{PREGID: data('PREGID'), REGID: data('REGID')}</t>
+  </si>
+  <si>
+    <t>{PREGID: data('PREGID'), REGID: data('REGID'), SESDATA: data('PREGDIA')}</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1262,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1270,10 +1279,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" t="s">
         <v>239</v>
-      </c>
-      <c r="D5" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1322,11 +1331,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,739 +1420,750 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="17" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>218</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>73</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>82</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>38</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>38</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>96</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H38" s="6" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>32</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>100</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" t="s">
         <v>100</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>101</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>33</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>32</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>103</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>103</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>104</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H44" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>33</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>98</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>125</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I47" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
         <v>98</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>125</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
         <v>32</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>27</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F53" t="s">
         <v>128</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" t="s">
-        <v>131</v>
-      </c>
-      <c r="F55" t="s">
-        <v>130</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>32</v>
       </c>
       <c r="E56" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" t="s">
+        <v>130</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" t="s">
         <v>27</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>211</v>
       </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6" t="s">
+      <c r="G57" s="6"/>
+      <c r="H57" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>33</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
         <v>38</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>209</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G59" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H59" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>34</v>
       </c>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
         <v>37</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G63" t="s">
         <v>151</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
         <v>38</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F64" t="s">
         <v>208</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G64" t="s">
         <v>152</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H64" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>33</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>38</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F66" t="s">
         <v>207</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G66" t="s">
         <v>153</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H66" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>37</v>
-      </c>
-      <c r="G69" t="s">
-        <v>154</v>
-      </c>
-      <c r="H69" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" t="s">
+        <v>154</v>
+      </c>
+      <c r="H70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
         <v>38</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>157</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G71" t="s">
         <v>152</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H71" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>33</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
         <v>38</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F73" t="s">
         <v>156</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G73" t="s">
         <v>153</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H73" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>37</v>
-      </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
+        <v>37</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
         <v>38</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F78" t="s">
         <v>159</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G78" t="s">
         <v>152</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H78" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>33</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
         <v>38</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>158</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G80" t="s">
         <v>153</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H80" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
         <v>32</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>27</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>160</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="G84" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="H84" s="6" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
         <v>32</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E87" t="s">
         <v>161</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F87" t="s">
         <v>176</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G87" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="H87" s="6" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
         <v>32</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E90" t="s">
         <v>181</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F90" t="s">
         <v>179</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="G90" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="H90" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
+      <c r="B92" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2158,9 +2178,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,19 +2231,19 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>64</v>
@@ -2243,13 +2263,13 @@
         <v>219</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>64</v>
@@ -2269,10 +2289,10 @@
         <v>219</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>64</v>
@@ -3011,11 +3031,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3258,10 +3278,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3269,72 +3289,83 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>244</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="C25" t="b">
+      <c r="C24" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>219</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B31" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="C30" t="b">
+      <c r="C31" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
+++ b/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD59F27B-49EB-478B-9E4E-678230AF8820}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52E95ED-4E69-4C00-A4F9-B774B7770FFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="251">
   <si>
     <t>setting_name</t>
   </si>
@@ -778,6 +778,12 @@
   </si>
   <si>
     <t>{PREGID: data('PREGID'), REGID: data('REGID'), SESDATA: data('PREGDIA')}</t>
+  </si>
+  <si>
+    <t>adate</t>
+  </si>
+  <si>
+    <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1341,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1599,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="F28" t="s">
         <v>79</v>
@@ -2311,11 +2317,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,6 +2366,20 @@
       </c>
       <c r="B3" s="11" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3033,9 +3053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,7 +3246,7 @@
         <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3336,7 +3356,7 @@
         <v>225</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>

--- a/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
+++ b/app/config/tables/GRAVIDA/forms/GRAVIDA/GRAVIDA.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52E95ED-4E69-4C00-A4F9-B774B7770FFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05128085-79AE-494C-9EC0-622162AF69E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="survey" sheetId="2" r:id="rId2"/>
-    <sheet name="queries" sheetId="6" r:id="rId3"/>
-    <sheet name="prompt_types" sheetId="5" r:id="rId4"/>
+    <sheet name="prompt_types" sheetId="5" r:id="rId3"/>
+    <sheet name="queries" sheetId="6" r:id="rId4"/>
     <sheet name="choices" sheetId="3" r:id="rId5"/>
     <sheet name="model" sheetId="4" r:id="rId6"/>
   </sheets>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="250">
   <si>
     <t>setting_name</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>precision</t>
-  </si>
-  <si>
-    <t>Precision of date</t>
   </si>
   <si>
     <t>Day certain</t>
@@ -840,7 +837,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -861,25 +858,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF660066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,7 +1001,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -919,13 +1012,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -935,7 +1026,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -945,6 +1055,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000CC"/>
+      <color rgb="FF00CC66"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FF660066"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF009900"/>
+      <color rgb="FF9966FF"/>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1244,13 +1366,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -1261,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1277,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1285,10 +1407,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1304,7 +1426,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1322,11 +1444,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>226</v>
+      <c r="B9" s="13" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1337,11 +1459,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -1390,21 +1512,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="15" t="s">
-        <v>227</v>
+      <c r="C2" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="13" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1416,47 +1539,49 @@
         <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" t="s">
         <v>245</v>
       </c>
-      <c r="I5" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -1466,10 +1591,10 @@
         <v>37</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1481,26 +1606,28 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1510,10 +1637,10 @@
         <v>37</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1525,47 +1652,51 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
       <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="17" t="s">
-        <v>220</v>
+      <c r="D20" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="E20" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" t="s">
         <v>218</v>
       </c>
-      <c r="F20" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
       <c r="B21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
       <c r="B24" t="s">
         <v>12</v>
       </c>
@@ -1588,18 +1719,20 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
       <c r="B26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
       <c r="B27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F28" t="s">
         <v>79</v>
@@ -1612,564 +1745,572 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="32"/>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+      <c r="B40" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>32</v>
       </c>
-      <c r="E29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" t="s">
+        <v>124</v>
+      </c>
+      <c r="I48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
+      <c r="B50" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
+      <c r="B51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="36"/>
+      <c r="B53" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="37"/>
+      <c r="B54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
         <v>32</v>
       </c>
-      <c r="E42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" t="s">
-        <v>103</v>
-      </c>
-      <c r="F44" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" t="s">
-        <v>104</v>
-      </c>
-      <c r="H44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" t="s">
-        <v>125</v>
-      </c>
-      <c r="I47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" t="s">
-        <v>125</v>
-      </c>
-      <c r="I49" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" t="s">
-        <v>128</v>
-      </c>
-      <c r="G53" s="6" t="s">
+      <c r="E55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" t="s">
         <v>129</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G55" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>32</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>130</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>153</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G56" s="6"/>
       <c r="H56" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
         <v>211</v>
       </c>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
         <v>38</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F58" t="s">
+        <v>208</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H58" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="37"/>
       <c r="B60" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
       <c r="B61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="F63" t="s">
+        <v>207</v>
       </c>
       <c r="G63" t="s">
         <v>151</v>
       </c>
       <c r="H63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
         <v>38</v>
       </c>
-      <c r="F64" t="s">
-        <v>208</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="F65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G65" t="s">
         <v>152</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" t="s">
+        <v>153</v>
+      </c>
+      <c r="H69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" t="s">
+        <v>156</v>
+      </c>
+      <c r="G70" t="s">
+        <v>151</v>
+      </c>
+      <c r="H70" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>33</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
+      <c r="G72" t="s">
+        <v>152</v>
+      </c>
+      <c r="H72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
         <v>38</v>
       </c>
-      <c r="F66" t="s">
-        <v>207</v>
-      </c>
-      <c r="G66" t="s">
-        <v>153</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="F77" t="s">
+        <v>158</v>
+      </c>
+      <c r="G77" t="s">
+        <v>151</v>
+      </c>
+      <c r="H77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" t="s">
+        <v>157</v>
+      </c>
+      <c r="G79" t="s">
+        <v>152</v>
+      </c>
+      <c r="H79" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>37</v>
-      </c>
-      <c r="G70" t="s">
-        <v>154</v>
-      </c>
-      <c r="H70" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>38</v>
-      </c>
-      <c r="F71" t="s">
-        <v>157</v>
-      </c>
-      <c r="G71" t="s">
-        <v>152</v>
-      </c>
-      <c r="H71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>38</v>
-      </c>
-      <c r="F73" t="s">
-        <v>156</v>
-      </c>
-      <c r="G73" t="s">
-        <v>153</v>
-      </c>
-      <c r="H73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>38</v>
-      </c>
-      <c r="F78" t="s">
-        <v>159</v>
-      </c>
-      <c r="G78" t="s">
-        <v>152</v>
-      </c>
-      <c r="H78" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>38</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
-      </c>
-      <c r="G80" t="s">
-        <v>153</v>
-      </c>
-      <c r="H80" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" t="s">
+        <v>159</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>32</v>
-      </c>
-      <c r="E84" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" t="s">
-        <v>160</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" t="s">
+        <v>160</v>
+      </c>
+      <c r="F86" t="s">
+        <v>175</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>32</v>
-      </c>
-      <c r="E87" t="s">
-        <v>161</v>
-      </c>
-      <c r="F87" t="s">
-        <v>176</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" t="s">
+        <v>180</v>
+      </c>
+      <c r="F89" t="s">
+        <v>178</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>32</v>
-      </c>
-      <c r="E90" t="s">
-        <v>181</v>
-      </c>
-      <c r="F90" t="s">
-        <v>179</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" t="s">
+      <c r="A91" s="21"/>
+      <c r="B91" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2181,6 +2322,78 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -2200,58 +2413,58 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2263,123 +2476,51 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
         <v>220</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2412,7 +2553,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
@@ -2532,10 +2673,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2547,10 +2688,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" t="s">
         <v>233</v>
-      </c>
-      <c r="D10" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2562,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
         <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2577,10 +2718,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
         <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2592,10 +2733,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2607,252 +2748,252 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
         <v>90</v>
-      </c>
-      <c r="D14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
         <v>107</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="s">
         <v>109</v>
-      </c>
-      <c r="D16" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
         <v>111</v>
-      </c>
-      <c r="D17" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s">
         <v>113</v>
-      </c>
-      <c r="D18" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
         <v>115</v>
-      </c>
-      <c r="D19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
         <v>117</v>
-      </c>
-      <c r="D20" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
         <v>109</v>
-      </c>
-      <c r="D21" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
         <v>119</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" t="str">
         <f>"88"</f>
         <v>88</v>
       </c>
       <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
         <v>121</v>
-      </c>
-      <c r="D23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
         <v>123</v>
-      </c>
-      <c r="D24" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
         <v>131</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>132</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>133</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
         <v>135</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>136</v>
-      </c>
-      <c r="D26" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
         <v>138</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>139</v>
-      </c>
-      <c r="D27" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
         <v>141</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>142</v>
-      </c>
-      <c r="D28" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" t="s">
         <v>144</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>145</v>
-      </c>
-      <c r="D29" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
         <v>147</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>148</v>
-      </c>
-      <c r="D30" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -2863,184 +3004,184 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
         <v>161</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="C32" t="s">
-        <v>163</v>
-      </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" t="s">
         <v>164</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>165</v>
-      </c>
-      <c r="D33" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
         <v>167</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>168</v>
-      </c>
-      <c r="D34" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" t="s">
         <v>170</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>171</v>
-      </c>
-      <c r="D35" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" t="s">
         <v>173</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>174</v>
-      </c>
-      <c r="D36" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" t="s">
         <v>181</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>182</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>183</v>
-      </c>
-      <c r="D37" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" t="s">
         <v>185</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>186</v>
-      </c>
-      <c r="D38" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" t="s">
         <v>188</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>189</v>
-      </c>
-      <c r="D39" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" t="s">
         <v>191</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>192</v>
-      </c>
-      <c r="D40" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" t="s">
         <v>194</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>195</v>
-      </c>
-      <c r="D41" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" t="s">
         <v>197</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>198</v>
-      </c>
-      <c r="D42" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" t="s">
         <v>200</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>201</v>
-      </c>
-      <c r="D43" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B44" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" t="s">
         <v>203</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>204</v>
-      </c>
-      <c r="D44" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3078,7 +3219,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -3089,7 +3230,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -3100,7 +3241,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -3111,7 +3252,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
@@ -3122,7 +3263,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -3133,7 +3274,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -3144,7 +3285,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
@@ -3155,7 +3296,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -3166,7 +3307,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -3177,10 +3318,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -3188,7 +3329,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -3199,7 +3340,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -3210,7 +3351,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -3221,7 +3362,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -3232,7 +3373,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -3246,7 +3387,7 @@
         <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3276,7 +3417,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
@@ -3287,7 +3428,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
@@ -3298,10 +3439,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3309,7 +3450,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
@@ -3320,7 +3461,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
@@ -3331,10 +3472,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3342,7 +3483,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
@@ -3353,10 +3494,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -3364,10 +3505,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" t="s">
         <v>236</v>
-      </c>
-      <c r="B29" t="s">
-        <v>237</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -3375,10 +3516,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>220</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
